--- a/Projects/231009_lhs600/results/Queries_231009_lhs600.xlsx
+++ b/Projects/231009_lhs600/results/Queries_231009_lhs600.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,1960 +534,4345 @@
           <t>OASPL_cruise_Mic2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Tip_chord</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02777256604085454</v>
+        <v>0.5208712774199686</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06612285128927654</v>
+        <v>0.2004110768002138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7590903799806215</v>
+        <v>0.9664326529610969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9464152581589332</v>
+        <v>0.8155424131547889</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6742886736599268</v>
+        <v>0.01155964594499481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3826837720000579</v>
+        <v>0.3900554962673169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1931889035929815</v>
+        <v>0.04119065491032622</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005013004596403142</v>
+        <v>0.0002239296324457473</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003639756784405529</v>
+        <v>0.05778668519372739</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000929970974715277</v>
+        <v>0.0003967891187861438</v>
       </c>
       <c r="K2" t="n">
-        <v>0.970149038605192</v>
+        <v>0.08059771981740668</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8112487327662457</v>
+        <v>0.4265990470038697</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01194740434791302</v>
+        <v>0.1354902363272007</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2534405607445265</v>
+        <v>0.7201596369396985</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1801510395457522</v>
+        <v>0.859360398911284</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9153901838207321</v>
+        <v>0.9127773448958785</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002452269730319426</v>
+        <v>0.002122152177026404</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002085239656806421</v>
+        <v>0.00172026991460993</v>
       </c>
       <c r="S2" t="n">
-        <v>82.53119283461407</v>
+        <v>85.64935766394511</v>
       </c>
       <c r="T2" t="n">
-        <v>78.41281235059336</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1040894459251756</v>
+        <v>78.604933392367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9945090940258389</v>
+        <v>0.9513884997311841</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05260248940155771</v>
+        <v>0.01464351671204498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004815641411109834</v>
+        <v>0.0001236693294913854</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8441942893820648</v>
+        <v>0.7940327782130512</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3129263017469701</v>
+        <v>0.003875682114577749</v>
       </c>
       <c r="F3" t="n">
-        <v>0.37972117925226</v>
+        <v>0.04096826410632344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0523471142223134</v>
+        <v>0.06837696437694328</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006971293787975986</v>
+        <v>6.971855856011106e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001242031395008265</v>
+        <v>0.2230946570398964</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001925231953994216</v>
+        <v>0.000214957826500784</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9025050910035224</v>
+        <v>0.009639071219503373</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1123891519754541</v>
+        <v>0.03909681456330005</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01866135864659593</v>
+        <v>0.2517875674572613</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4075749592319927</v>
+        <v>0.6310437620702448</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1443822368988533</v>
+        <v>0.02560573436772073</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7721715790731203</v>
+        <v>0.05632637218272124</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002218211227984509</v>
+        <v>0.002101164068577657</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001603925108932493</v>
+        <v>0.001564348865456937</v>
       </c>
       <c r="S3" t="n">
-        <v>84.58520595511067</v>
+        <v>87.64966504167093</v>
       </c>
       <c r="T3" t="n">
-        <v>78.46757008584656</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.1040453313480083</v>
+        <v>79.39931143623048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04388244377685019</v>
+        <v>0.9728876012319335</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1407039899567899</v>
+        <v>0.007506239585573506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7889895901544944</v>
+        <v>0.0002332697186851682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7063103247772247</v>
+        <v>0.7944113499384512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3549285347254691</v>
+        <v>0.02194489837457125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3793619707172784</v>
+        <v>0.06111210991684551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1976740488350361</v>
+        <v>0.001013032519477086</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000442979305297294</v>
+        <v>0.00410517899479358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003530674536020968</v>
+        <v>0.2292008971363395</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002788610528039274</v>
+        <v>0.0002215895581436655</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06776020421124404</v>
+        <v>0.02572819347678868</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04190654221572832</v>
+        <v>0.07570535727994637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001480388344131889</v>
+        <v>0.2518546047720174</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006596281118573001</v>
+        <v>0.6397249157878581</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1912437678067189</v>
+        <v>0.1824774965766867</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8600118247208051</v>
+        <v>0.003534255738825653</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002570441151823396</v>
+        <v>0.002108223155284061</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001802558023012046</v>
+        <v>0.001558174826008217</v>
       </c>
       <c r="S4" t="n">
-        <v>83.00858562885759</v>
+        <v>87.62094988019578</v>
       </c>
       <c r="T4" t="n">
-        <v>77.84421274249867</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1041514172995908</v>
+        <v>79.44404462905803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.007468276568095317</v>
+        <v>0.7253160545685269</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03634485864136467</v>
+        <v>0.3250833575252011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01589550882628693</v>
+        <v>0.00166393502964883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5919914881287239</v>
+        <v>0.8130613206458618</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7249890935412708</v>
+        <v>0.005002400577130502</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3613916163560988</v>
+        <v>0.01613938752224453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2073733260182553</v>
+        <v>0.08075003524769474</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004180921794413897</v>
+        <v>0.0001732821609004557</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007400698529096986</v>
+        <v>0.001866706143774891</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002082654795122135</v>
+        <v>0.0003859344229416191</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8662974265720574</v>
+        <v>0.01232086836404357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1333508355258434</v>
+        <v>0.7889315451569446</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001150115828339768</v>
+        <v>0.1854133141153428</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3853932253306596</v>
+        <v>0.7331361842045382</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2060961717128356</v>
+        <v>0.9238337669815107</v>
       </c>
       <c r="P5" t="n">
-        <v>0.923282701685345</v>
+        <v>0.545114789432332</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002298493701978438</v>
+        <v>0.00215199747788751</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001920385697227957</v>
+        <v>0.00163174420628085</v>
       </c>
       <c r="S5" t="n">
-        <v>83.90547034811962</v>
+        <v>84.84333746970032</v>
       </c>
       <c r="T5" t="n">
-        <v>78.5656080144978</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.1040225253171349</v>
+        <v>78.36328592692314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9834814234606243</v>
+        <v>0.7908610749432377</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6848657356105391</v>
+        <v>0.2554420055764001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006673035479982283</v>
+        <v>0.9723346529206299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2097331863810799</v>
+        <v>0.9427238208284023</v>
       </c>
       <c r="E6" t="n">
-        <v>0.354494182231786</v>
+        <v>0.6683415414084123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3661180483571975</v>
+        <v>0.1842907391646409</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05136572447922555</v>
+        <v>0.09073569759761513</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01749364286947981</v>
+        <v>0.005671293508521872</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001467159383801246</v>
+        <v>0.0003914946824986748</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002046667013039298</v>
+        <v>0.0004226329025901486</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8960063186015761</v>
+        <v>0.07593928962687599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9332759252825695</v>
+        <v>0.5194577051078619</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06103582919294453</v>
+        <v>0.001609654366706836</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002276348356336004</v>
+        <v>0.1230208592566328</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1440624974832947</v>
+        <v>0.9792731078925599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7721540976724541</v>
+        <v>0.9664157283069575</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002801011706085344</v>
+        <v>0.002570004424202562</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00155429364175768</v>
+        <v>0.001964805400252721</v>
       </c>
       <c r="S6" t="n">
-        <v>83.87956178910341</v>
+        <v>82.13445237426572</v>
       </c>
       <c r="T6" t="n">
-        <v>78.1556113525677</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.1046730834763649</v>
+        <v>78.02588885526922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9215298151184718</v>
+        <v>0.9903300292852693</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07656419844119869</v>
+        <v>0.4039631580553759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006704652324324757</v>
+        <v>0.05132678435379312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1632034681696335</v>
+        <v>0.7876382978903349</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3492047534287583</v>
+        <v>0.3345368902200251</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4060252728817301</v>
+        <v>0.233162912363156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1564173320777237</v>
+        <v>0.07061156853876063</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001888496873321138</v>
+        <v>0.0008759000247037475</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005506818466352746</v>
+        <v>0.0001237422254318175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001744407209550812</v>
+        <v>0.0001191093882047182</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8654841078007467</v>
+        <v>0.7243682790038268</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9715705807271593</v>
+        <v>0.9876560256659721</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005146425153601635</v>
+        <v>0.01082949428472998</v>
       </c>
       <c r="N7" t="n">
-        <v>0.370817250034123</v>
+        <v>0.3677763732692965</v>
       </c>
       <c r="O7" t="n">
-        <v>0.159455703815702</v>
+        <v>0.9851040874908052</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1415179891590883</v>
+        <v>0.9615038015935111</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002651463182168917</v>
+        <v>0.002431913856973331</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001585443043159641</v>
+        <v>0.001614070320569337</v>
       </c>
       <c r="S7" t="n">
-        <v>83.8419165429455</v>
+        <v>82.50594688166635</v>
       </c>
       <c r="T7" t="n">
-        <v>78.26381150553107</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.1040570475166667</v>
+        <v>78.19968863601372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2947790364045804</v>
+        <v>0.03460570556926833</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5821514371387444</v>
+        <v>0.1302263380208029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007370756600765874</v>
+        <v>0.9602834301588346</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4735612566754139</v>
+        <v>0.766868497857671</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2217496904792424</v>
+        <v>0.6683627636277274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3859079394342879</v>
+        <v>0.05108412130548513</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1504776441402604</v>
+        <v>0.00570413539807957</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01438561962805183</v>
+        <v>0.0003657656459018784</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001525962305785887</v>
+        <v>0.0001197526314975647</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0009051872626431749</v>
+        <v>0.0004683955697937594</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1990280077165644</v>
+        <v>0.0006331572146759208</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9022355004767206</v>
+        <v>0.06019611864987456</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01806755422424536</v>
+        <v>0.001598615433634413</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9817698259846459</v>
+        <v>0.001395383801689667</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1585244100715084</v>
+        <v>0.9465732451278424</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4524408949330194</v>
+        <v>0.6132529938424166</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002201331474485041</v>
+        <v>0.002643370476384696</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001644040150206088</v>
+        <v>0.001992895494464318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.15614243874765</v>
+        <v>82.17871365170848</v>
       </c>
       <c r="T8" t="n">
-        <v>78.3330753295122</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.1045194170713559</v>
+        <v>77.76213702695875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9935148546340502</v>
+        <v>0.9778009915515348</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5795095110059901</v>
+        <v>0.3007017232403629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006708317667873047</v>
+        <v>0.00413941486576426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2117213339120481</v>
+        <v>0.799326510534806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3413853521059673</v>
+        <v>0.01378543416574744</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4064117880064977</v>
+        <v>0.08190913032235088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0440447758847284</v>
+        <v>0.004634714486584393</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007781765027703889</v>
+        <v>0.00106969458919694</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001382379328685687</v>
+        <v>0.1075381061875908</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001849107174857814</v>
+        <v>0.002435676962252683</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9207112812381406</v>
+        <v>0.00217022913663098</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02187370587573351</v>
+        <v>0.9555229970135329</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01314507135291686</v>
+        <v>0.1458557250235748</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0006809465385632305</v>
+        <v>0.6699946373030558</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05815787751518983</v>
+        <v>0.9869648103588182</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1360446441565028</v>
+        <v>0.9453275653049141</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002705519609566898</v>
+        <v>0.002156533329174339</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001539003446296949</v>
+        <v>0.001598507720858432</v>
       </c>
       <c r="S9" t="n">
-        <v>84.24716394816247</v>
+        <v>84.73604751801012</v>
       </c>
       <c r="T9" t="n">
-        <v>78.08764927456023</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.1040507043980241</v>
+        <v>78.71553589829963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1517433604275524</v>
+        <v>0.987848606891211</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6232754645994401</v>
+        <v>0.1604930955652839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.035488898564731</v>
+        <v>0.05862221009748481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7128674190737578</v>
+        <v>0.794344781576285</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2322002907065648</v>
+        <v>0.007061968208432841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4867587390897359</v>
+        <v>0.09636507478206749</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1625200128515925</v>
+        <v>0.02884866677706313</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006453989310528468</v>
+        <v>0.0004645662654403723</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001311410868537304</v>
+        <v>0.1293184089254773</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002956596976444903</v>
+        <v>0.001591022257096555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09330728485427531</v>
+        <v>0.2011817631384571</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9949661526410868</v>
+        <v>0.08420913519212408</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04039288894367889</v>
+        <v>0.3173316875242304</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9416786188687281</v>
+        <v>0.6425940435072385</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1843142955560049</v>
+        <v>0.9383563181820876</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5173331670912247</v>
+        <v>0.9910055962687442</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002147587745807697</v>
+        <v>0.002100084210105774</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001764318597594621</v>
+        <v>0.001590312946254387</v>
       </c>
       <c r="S10" t="n">
-        <v>84.67086000298808</v>
+        <v>86.96701885139382</v>
       </c>
       <c r="T10" t="n">
-        <v>78.35747939783336</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.1042964331411651</v>
+        <v>79.04841370031647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9634656112873745</v>
+        <v>0.9978450732862573</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04721435325990023</v>
+        <v>0.2463245942179817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007861539681705441</v>
+        <v>0.8744614503934725</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8048753761218087</v>
+        <v>0.9283923942615602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1676953265326048</v>
+        <v>0.3380784914983415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4766139270023792</v>
+        <v>0.08413714946099972</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2133836722778528</v>
+        <v>0.4598745793347986</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01760122504778988</v>
+        <v>0.0005054870323376136</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005375498741408838</v>
+        <v>0.003373108993841145</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001744858103762663</v>
+        <v>0.0003020481156855166</v>
       </c>
       <c r="K11" t="n">
-        <v>0.960639611268989</v>
+        <v>0.2135852487678187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5982079359781881</v>
+        <v>0.9962803787453823</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005223892890289378</v>
+        <v>0.01192693292876894</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9305966582355504</v>
+        <v>0.6023777726048999</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1604503281831181</v>
+        <v>0.9509534136428111</v>
       </c>
       <c r="P11" t="n">
-        <v>0.778399432939514</v>
+        <v>0.9723555886834722</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002241222985828101</v>
+        <v>0.002245574535629951</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001582352232134885</v>
+        <v>0.001758323872438659</v>
       </c>
       <c r="S11" t="n">
-        <v>86.0436905245521</v>
+        <v>82.75010179179078</v>
       </c>
       <c r="T11" t="n">
-        <v>78.58867655415513</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.1046316153971019</v>
+        <v>78.23669048309337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9944730106056743</v>
+        <v>0.9268215958388073</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06612285128927654</v>
+        <v>0.07214172730706649</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7497168803855447</v>
+        <v>0.05213422782697991</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7674463711246722</v>
+        <v>0.8274147848389233</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5745924436837581</v>
+        <v>0.009387170391179107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3826837720000579</v>
+        <v>0.2037839755811549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.168337157836025</v>
+        <v>0.05951040464983321</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03439878889756783</v>
+        <v>0.0008667946912747711</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02559077639937604</v>
+        <v>0.1940435262874858</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00197572171464039</v>
+        <v>0.0003830922116004995</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9769413101183146</v>
+        <v>0.1279264422792246</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8095075757997046</v>
+        <v>0.4077817872718726</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01194740434791302</v>
+        <v>0.2271415994957608</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2534405607445265</v>
+        <v>0.6181820800691747</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1814319026698151</v>
+        <v>0.9015582038760382</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8992264671695666</v>
+        <v>0.6662356721135573</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00237227132427617</v>
+        <v>0.002103876183769792</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001805414882876613</v>
+        <v>0.001591485192000117</v>
       </c>
       <c r="S12" t="n">
-        <v>82.97592038101496</v>
+        <v>86.33274500716593</v>
       </c>
       <c r="T12" t="n">
-        <v>78.5215731384863</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.1061830188394349</v>
+        <v>79.19584340013324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.006939800898077551</v>
+        <v>0.9898832188886031</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1359985966405644</v>
+        <v>0.1749800821574999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8470773675965544</v>
+        <v>0.0009472267343378967</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6651865715877852</v>
+        <v>0.8788002967420548</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1923745369981122</v>
+        <v>0.04603541722985072</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3706728079780528</v>
+        <v>0.1812556096848216</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1621858836911872</v>
+        <v>0.002673565461924293</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002549416774744033</v>
+        <v>0.007711811436580398</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001543713582667839</v>
+        <v>0.1409677639105436</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002975081661024706</v>
+        <v>0.0003422358418853564</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9470052345186089</v>
+        <v>0.2014634924850554</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9216621733023973</v>
+        <v>0.5024916304287035</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2709484284903346</v>
+        <v>0.1544104860686105</v>
       </c>
       <c r="N13" t="n">
-        <v>0.881474236977934</v>
+        <v>0.6563074965390145</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2969072627662794</v>
+        <v>0.9870596330431449</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8735210992613485</v>
+        <v>0.7447470487684809</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002100638249470101</v>
+        <v>0.002121141732775592</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001739428424962566</v>
+        <v>0.001586067261019788</v>
       </c>
       <c r="S13" t="n">
-        <v>85.97301344110011</v>
+        <v>85.63824195863599</v>
       </c>
       <c r="T13" t="n">
-        <v>78.66309038721081</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.1041625730887998</v>
+        <v>78.97896074312355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.04567132968195106</v>
+        <v>0.7245306414228201</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6147542746191473</v>
+        <v>0.3366088276058399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02916881253175922</v>
+        <v>0.04965071453180146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.474319437585678</v>
+        <v>0.8002115187453687</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3480971370439095</v>
+        <v>0.05927268692038982</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3827867729677719</v>
+        <v>0.05465267067596073</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2112696961758142</v>
+        <v>0.006176909415472256</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002355536206459351</v>
+        <v>0.0006692341510402148</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003287233718454379</v>
+        <v>0.07925433828809671</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002921437246374123</v>
+        <v>0.005291837990488286</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8918403443927843</v>
+        <v>0.5877361277135189</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9152306318173785</v>
+        <v>0.9921716241620779</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02498960729734667</v>
+        <v>0.1923413885055987</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9279405717701018</v>
+        <v>0.726932877481979</v>
       </c>
       <c r="O14" t="n">
-        <v>0.217662735657648</v>
+        <v>0.9560282236556138</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1925855904117811</v>
+        <v>0.9863110070302197</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002162307289395673</v>
+        <v>0.002144956818957471</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001678688085590564</v>
+        <v>0.001649928547900168</v>
       </c>
       <c r="S14" t="n">
-        <v>84.91760613972819</v>
+        <v>84.70378841046178</v>
       </c>
       <c r="T14" t="n">
-        <v>78.44320287274309</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.1041396681674354</v>
+        <v>78.74762247117812</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02325243391149678</v>
+        <v>0.9503863145276494</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5795095110059901</v>
+        <v>0.1284697637905083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006708317667873047</v>
+        <v>0.06327941870940093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2117213339120481</v>
+        <v>0.8162423686565501</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3417170329913246</v>
+        <v>0.0001666022206359002</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4064117880064977</v>
+        <v>0.03881048343325462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04075388970557078</v>
+        <v>0.08044020176080785</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007463790557185736</v>
+        <v>0.001277120049379985</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001382379328685687</v>
+        <v>0.201189871895295</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001855021155563406</v>
+        <v>0.001057394721785249</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9207112812381406</v>
+        <v>0.002464359603228992</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02187370587573351</v>
+        <v>0.08356877713825413</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01314507135291686</v>
+        <v>0.2444634657156583</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0006809465385632305</v>
+        <v>0.6334040124996176</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02547517487123427</v>
+        <v>0.03109025254302444</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8700422320184683</v>
+        <v>0.940486084189729</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002656497122854795</v>
+        <v>0.00208595883406545</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001613040161637424</v>
+        <v>0.001593860579561782</v>
       </c>
       <c r="S15" t="n">
-        <v>84.13193952274224</v>
+        <v>87.27692220734099</v>
       </c>
       <c r="T15" t="n">
-        <v>78.03673511923648</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.1042957079442305</v>
+        <v>79.31236305836492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1365984282945042</v>
+        <v>0.8235431857270342</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03663549675398736</v>
+        <v>0.1454081481902192</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2066197760301025</v>
+        <v>0.04135643888776808</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8021485555678256</v>
+        <v>0.8203587204256212</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06142663651173122</v>
+        <v>0.01000282831098673</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02086716312512124</v>
+        <v>0.04561047855987104</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2131916522491328</v>
+        <v>0.01284402815528629</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0005588103851751622</v>
+        <v>0.0009535828820039726</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003417563770934677</v>
+        <v>0.04813946090779717</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000236111953857181</v>
+        <v>0.002079692389968162</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1258230948427733</v>
+        <v>0.01938974168182751</v>
       </c>
       <c r="L16" t="n">
-        <v>0.556343266466459</v>
+        <v>0.1084314747407834</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01523104063705787</v>
+        <v>0.2471780226176312</v>
       </c>
       <c r="N16" t="n">
-        <v>0.43831432337967</v>
+        <v>0.6425117187561343</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2131422902998851</v>
+        <v>0.9148290613089821</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7909722203531121</v>
+        <v>0.9524422961173321</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002278312256502317</v>
+        <v>0.00211634019726151</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001713803831807071</v>
+        <v>0.001606174745937385</v>
       </c>
       <c r="S16" t="n">
-        <v>84.31754160371563</v>
+        <v>86.33779679255471</v>
       </c>
       <c r="T16" t="n">
-        <v>78.11683908738627</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.1039456073513524</v>
+        <v>78.69886892998241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01066361093047311</v>
+        <v>0.9457534291646483</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02409349743837799</v>
+        <v>0.04481170975892685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05626408286052238</v>
+        <v>0.0249167803425007</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6055708938658594</v>
+        <v>0.8132254639780155</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0621932002056981</v>
+        <v>0.004824682004913691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2368850037117197</v>
+        <v>0.06216147854896442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1266096947771124</v>
+        <v>0.0762330845295221</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001362028928626334</v>
+        <v>0.00119064614729101</v>
       </c>
       <c r="I17" t="n">
-        <v>4.486090418426574e-05</v>
+        <v>0.1590149760589941</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002142776363334396</v>
+        <v>0.002066846704434929</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06070984372726212</v>
+        <v>0.02383450829218137</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5754544647047377</v>
+        <v>0.3406177251378664</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2585705540564592</v>
+        <v>0.2522901519642433</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9787190224131933</v>
+        <v>0.6310492198675514</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02101566278212957</v>
+        <v>0.686726424658609</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6295445283259336</v>
+        <v>0.5784188861357664</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.002128984910169516</v>
+        <v>0.002107476158835225</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00168534336070336</v>
+        <v>0.001578681152543052</v>
       </c>
       <c r="S17" t="n">
-        <v>87.51852422867456</v>
+        <v>86.53752931856431</v>
       </c>
       <c r="T17" t="n">
-        <v>78.55395387994771</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.1039184548479422</v>
+        <v>79.08666619820205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9837872981454854</v>
+        <v>0.9108126178480157</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5932146682435865</v>
+        <v>0.3719672203488086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04009280209847207</v>
+        <v>0.8899195601911908</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4737157138407776</v>
+        <v>0.9848379165815778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3449482186576303</v>
+        <v>0.6296456961475789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4766374100101369</v>
+        <v>0.527156342416526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07844017986873018</v>
+        <v>0.04242231633405139</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002478878908779219</v>
+        <v>0.0003612315583233824</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003243200640390261</v>
+        <v>0.003380585296941397</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001991412116549754</v>
+        <v>0.0004998819138920673</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9898425056641678</v>
+        <v>0.6928832128206307</v>
       </c>
       <c r="L18" t="n">
-        <v>0.922161159778251</v>
+        <v>0.9908528389596832</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2770717673604435</v>
+        <v>0.005093584337221535</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9907682575460016</v>
+        <v>0.3703964746617514</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2812781238688522</v>
+        <v>0.9981932113786394</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5981945479595593</v>
+        <v>0.9983747752380472</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002337765513384103</v>
+        <v>0.002428891798738529</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001572536197720353</v>
+        <v>0.001911147476869696</v>
       </c>
       <c r="S18" t="n">
-        <v>86.0732726054347</v>
+        <v>81.92090715020466</v>
       </c>
       <c r="T18" t="n">
-        <v>78.76018119261641</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.1041861937889569</v>
+        <v>78.35121569411127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7883330832563785</v>
+        <v>0.04722974659870238</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6871075389673469</v>
+        <v>0.1620309568959827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7659783679338046</v>
+        <v>0.9244626703991143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5219939923722142</v>
+        <v>0.8940720512953023</v>
       </c>
       <c r="E19" t="n">
-        <v>0.798942290183728</v>
+        <v>0.6573758083125489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4776995458614112</v>
+        <v>0.1143719095211795</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3791507388170138</v>
+        <v>0.0228337468015828</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01436327161798804</v>
+        <v>0.0001458728901763333</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001579611599628768</v>
+        <v>0.0007992461935330113</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001848413155708162</v>
+        <v>0.0003434732381000925</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9148632309816265</v>
+        <v>0.1957219235452817</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5472357553565164</v>
+        <v>0.3678245222261354</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01238446122227605</v>
+        <v>0.00102337550712899</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02322848519966976</v>
+        <v>0.0002497055238136536</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1449689306222454</v>
+        <v>0.9796443445883888</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6372866582378984</v>
+        <v>0.9942542414232884</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002481475839031985</v>
+        <v>0.002665292900533915</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001759368268611933</v>
+        <v>0.002055002548905986</v>
       </c>
       <c r="S19" t="n">
-        <v>83.31336368107077</v>
+        <v>81.93393736615185</v>
       </c>
       <c r="T19" t="n">
-        <v>78.12309189546913</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.10455535670126</v>
+        <v>77.8405486201932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.969380434426533</v>
+        <v>0.8587223587778726</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6804662643913637</v>
+        <v>0.1646459994921918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05763116707601139</v>
+        <v>0.01855119910106222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.737438292329158</v>
+        <v>0.7948155269935434</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2765781725124431</v>
+        <v>0.0005484647221244306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3772294911631747</v>
+        <v>0.061493996657012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2075168943987982</v>
+        <v>0.01637394220082532</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004031448097467786</v>
+        <v>0.0005527241370050307</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001143446476473287</v>
+        <v>0.1683803279584124</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001066641338901216</v>
+        <v>0.002529206322693696</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1406679050828654</v>
+        <v>0.2610320953380078</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9761023432380236</v>
+        <v>0.08164424597720907</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003891973573875765</v>
+        <v>0.2636497568504197</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9554331247005463</v>
+        <v>0.6316395777790246</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2040568608813301</v>
+        <v>0.6799441517901725</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6213977698469303</v>
+        <v>0.9911620661961948</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.00226868413776119</v>
+        <v>0.002084560483034102</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001616677089454275</v>
+        <v>0.001610288286779364</v>
       </c>
       <c r="S20" t="n">
-        <v>84.42215278924903</v>
+        <v>86.99902937338064</v>
       </c>
       <c r="T20" t="n">
-        <v>78.32783643848362</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.1041323314348108</v>
+        <v>79.18755462550368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.07248166677195497</v>
+        <v>0.9894548863040308</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2555664362170232</v>
+        <v>0.7900418693230435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8007333254589069</v>
+        <v>0.001880165767178789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7559561475037507</v>
+        <v>0.2166608278839607</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3265398717041549</v>
+        <v>0.3841599618595901</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4877613016753887</v>
+        <v>0.01842454332031149</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1861670257600784</v>
+        <v>0.001881073116593902</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0005410325958020382</v>
+        <v>0.0003180267469988194</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006517235873172156</v>
+        <v>0.00080030927208701</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002694096317776315</v>
+        <v>0.0002021972788173212</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1184473744177846</v>
+        <v>0.006659976631878365</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9694503867201294</v>
+        <v>0.9966241211603423</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2105502561186386</v>
+        <v>0.003992748806967066</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9994761479615009</v>
+        <v>0.1849337123641684</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2140962269914336</v>
+        <v>0.06408554227283247</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8210563352552837</v>
+        <v>0.02031198789888653</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002096843939507378</v>
+        <v>0.002900556461886286</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001825872784056842</v>
+        <v>0.00152138161392224</v>
       </c>
       <c r="S21" t="n">
-        <v>85.80296268561443</v>
+        <v>84.04937675310009</v>
       </c>
       <c r="T21" t="n">
-        <v>78.71952421416823</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.104046098926582</v>
+        <v>77.97183591531105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.09761264394466312</v>
+        <v>0.04708715377491543</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5828440253293737</v>
+        <v>0.16198573475428</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01745561857647388</v>
+        <v>0.9650350255954926</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1866554094697052</v>
+        <v>0.9822183057645275</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2217496904792424</v>
+        <v>0.7147117108848806</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3373716570121938</v>
+        <v>0.1137865641911835</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1631699328154486</v>
+        <v>0.08131427305582385</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01438561962805183</v>
+        <v>1.014672785850518e-05</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001434700036198075</v>
+        <v>0.0008158102320406764</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009242281429196364</v>
+        <v>0.000169027208273784</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1995970805861781</v>
+        <v>0.6783111592646252</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8563980110599915</v>
+        <v>0.8912740816811972</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004713436119918722</v>
+        <v>8.16691288589807e-05</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9817698259846459</v>
+        <v>0.001842361771808309</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1597246897069136</v>
+        <v>0.9995972689934906</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2167822944673836</v>
+        <v>0.9956143108085173</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002314277155062765</v>
+        <v>0.002708860207232974</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001599884561848496</v>
+        <v>0.002145268989058442</v>
       </c>
       <c r="S22" t="n">
-        <v>85.447077340375</v>
+        <v>81.80012015481545</v>
       </c>
       <c r="T22" t="n">
-        <v>78.27486069150304</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.1045167847006646</v>
+        <v>78.04911039894091</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9884369116078813</v>
+        <v>0.9547694057276617</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6784754426600116</v>
+        <v>0.07897603347866375</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006673035479982283</v>
+        <v>0.003691617933609128</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3919011742155359</v>
+        <v>0.7939067718387278</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8062567163016217</v>
+        <v>0.0005199217667871299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4757595785101397</v>
+        <v>0.062955024050092</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2195135967485868</v>
+        <v>0.0164367545323052</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007945682650248806</v>
+        <v>0.0002982265090463592</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001391850098260136</v>
+        <v>0.2135880173559364</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000987744672399378</v>
+        <v>0.0008093720860945556</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2196914532938904</v>
+        <v>0.2658679983401902</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9449456534277452</v>
+        <v>0.04458223370068046</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00427324513047992</v>
+        <v>0.2810396444375887</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06519754967894247</v>
+        <v>0.6324141012653161</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1499157863943204</v>
+        <v>0.04747265671274442</v>
       </c>
       <c r="P23" t="n">
-        <v>0.759649906040224</v>
+        <v>0.6288729544745251</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.002515478629037475</v>
+        <v>0.002088371595014213</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001624745766410752</v>
+        <v>0.001577251578456717</v>
       </c>
       <c r="S23" t="n">
-        <v>83.29525618576355</v>
+        <v>87.63517066222727</v>
       </c>
       <c r="T23" t="n">
-        <v>77.98315848687616</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.1040201472362778</v>
+        <v>79.37244301149872</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.006939800898077551</v>
+        <v>0.9753139435286745</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06869810422895295</v>
+        <v>0.8698390450405922</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8470773675965544</v>
+        <v>0.06503902861379102</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6651865715877852</v>
+        <v>0.9761452358016939</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2029904192286522</v>
+        <v>0.3553375514612487</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3715888338905853</v>
+        <v>0.5532553588435603</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1476488579326699</v>
+        <v>0.5021209635332931</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002574398117181487</v>
+        <v>0.002376852925044678</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001543713582667839</v>
+        <v>0.001404589368597844</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001847461688704939</v>
+        <v>0.0007741310315966922</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9148144231162871</v>
+        <v>0.3496539433857955</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9216621733023973</v>
+        <v>0.974616367334957</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2709484284903346</v>
+        <v>0.003083702519615428</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9420551538380904</v>
+        <v>0.4913916674861336</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2141751927874579</v>
+        <v>0.9883224505021619</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6181184722550966</v>
+        <v>0.9331478515329202</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002089974330960834</v>
+        <v>0.002343284730677507</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001733621916369676</v>
+        <v>0.0017363479790573</v>
       </c>
       <c r="S24" t="n">
-        <v>86.2210993436467</v>
+        <v>82.36382884703413</v>
       </c>
       <c r="T24" t="n">
-        <v>78.69244115707639</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.1041222116412228</v>
+        <v>78.25540834184505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2722784413304154</v>
+        <v>0.9848015620548466</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1129682796342259</v>
+        <v>0.04029175943777035</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007407561963505361</v>
+        <v>0.04719767890756339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7176051474396941</v>
+        <v>0.7970372508693631</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1567489646374513</v>
+        <v>0.0003016080528704843</v>
       </c>
       <c r="F25" t="n">
-        <v>0.348659765400627</v>
+        <v>0.006182905160353969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1942295642431119</v>
+        <v>0.009603547691310324</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0005008723911441157</v>
+        <v>0.0008027372419009149</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000536215356688185</v>
+        <v>0.1089123001464694</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000548808819729672</v>
+        <v>9.12768252562915e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.216512550883788</v>
+        <v>0.8047048273497823</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7967458953126316</v>
+        <v>0.3987474655189782</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2675623058903173</v>
+        <v>0.2278941376244761</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9371341034941465</v>
+        <v>0.6619372182034964</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2165981588806199</v>
+        <v>0.7595157560226125</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5760314826776815</v>
+        <v>0.8868958690762206</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.002123953895830753</v>
+        <v>0.002119140734406375</v>
       </c>
       <c r="R25" t="n">
-        <v>0.001699867409878529</v>
+        <v>0.001572358034419046</v>
       </c>
       <c r="S25" t="n">
-        <v>86.68445967015636</v>
+        <v>86.21667157394278</v>
       </c>
       <c r="T25" t="n">
-        <v>78.64517675310393</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.10396196195495</v>
+        <v>78.88871420347468</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.01046588426366304</v>
+        <v>0.9889347272285303</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06750349574714866</v>
+        <v>0.8242170733896265</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7580218021064526</v>
+        <v>0.003651147713022447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9495021018683111</v>
+        <v>0.2557792466527767</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7769974468012179</v>
+        <v>0.4359397892405545</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3803685393336085</v>
+        <v>0.03980679194477622</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1831759562035094</v>
+        <v>0.001467304414176208</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008367943196735507</v>
+        <v>0.0002579704309527204</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006583836309329769</v>
+        <v>0.002008732544985774</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002734962644995894</v>
+        <v>0.001010171038576798</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9326321458234624</v>
+        <v>0.06062413925311888</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9358361187595894</v>
+        <v>0.3685631656069305</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01346968754843268</v>
+        <v>0.006191304179638162</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3405742213923497</v>
+        <v>0.02920991462399164</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1912759591659411</v>
+        <v>0.948505484099422</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8589756746816073</v>
+        <v>0.01310547821280339</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.002417237347298089</v>
+        <v>0.002823193363008417</v>
       </c>
       <c r="R26" t="n">
-        <v>0.002148988005831692</v>
+        <v>0.001534323551649834</v>
       </c>
       <c r="S26" t="n">
-        <v>82.57165310774054</v>
+        <v>83.40448023283506</v>
       </c>
       <c r="T26" t="n">
-        <v>78.56067652583769</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.1040586909824472</v>
+        <v>77.88590769731154</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02777256604085454</v>
+        <v>0.9354636406612833</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03716800711787569</v>
+        <v>0.07990929004128605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7590903799806215</v>
+        <v>0.005181581764315241</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5586971269591299</v>
+        <v>0.7890324876413914</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7263910219216948</v>
+        <v>4.973077887188322e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3826837720000579</v>
+        <v>0.4232556130768144</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1931889035929815</v>
+        <v>0.02570005828795512</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0005013004596403142</v>
+        <v>0.0004985600900751386</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000800440973872619</v>
+        <v>0.2351877025976571</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000929970974715277</v>
+        <v>0.0009928552248482574</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8700113162373065</v>
+        <v>0.5891261599429648</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8112487327662457</v>
+        <v>0.06666196276246253</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01194740434791302</v>
+        <v>0.3122714622418439</v>
       </c>
       <c r="N27" t="n">
-        <v>0.008046021471497841</v>
+        <v>0.6326506658856831</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1799973178718902</v>
+        <v>0.901667620413008</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8961293554429982</v>
+        <v>0.9621838507200351</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.002597794388931506</v>
+        <v>0.002082615337249493</v>
       </c>
       <c r="R27" t="n">
-        <v>0.001935279382744387</v>
+        <v>0.001597085387348118</v>
       </c>
       <c r="S27" t="n">
-        <v>82.30305878259787</v>
+        <v>87.4879547825342</v>
       </c>
       <c r="T27" t="n">
-        <v>78.00712034393744</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.1039856627093141</v>
+        <v>79.47632188243772</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7883330832563785</v>
+        <v>0.9327226298104682</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1353569865329654</v>
+        <v>0.01882148058017161</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7659783679338046</v>
+        <v>0.000324765828665436</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5217223581228692</v>
+        <v>0.8058447512159876</v>
       </c>
       <c r="E28" t="n">
-        <v>0.815190051059779</v>
+        <v>0.008980789737953854</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4726948517019502</v>
+        <v>0.4245340659213154</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3934271399245489</v>
+        <v>0.01125583910179215</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001533455171489459</v>
+        <v>0.0003185773256555721</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001579611599628768</v>
+        <v>0.0008380678839527882</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002934397903159547</v>
+        <v>0.002195618827838493</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8785317897635569</v>
+        <v>0.009169050835642595</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6408836541595986</v>
+        <v>0.9236667150775099</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01327852622798051</v>
+        <v>0.004003523069329788</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02322848519966976</v>
+        <v>0.5415065360998642</v>
       </c>
       <c r="O28" t="n">
-        <v>0.137283225908912</v>
+        <v>0.1150827047796689</v>
       </c>
       <c r="P28" t="n">
-        <v>0.791874135431156</v>
+        <v>0.8634122303583325</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.002549853889238659</v>
+        <v>0.002257583975863191</v>
       </c>
       <c r="R28" t="n">
-        <v>0.001897978845136085</v>
+        <v>0.001561403790627599</v>
       </c>
       <c r="S28" t="n">
-        <v>82.40460150502335</v>
+        <v>84.41218650961372</v>
       </c>
       <c r="T28" t="n">
-        <v>78.09168689285885</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.1041252772464465</v>
+        <v>78.10038429730274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1372075992885553</v>
+        <v>0.9838547019122541</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01713210530354116</v>
+        <v>0.3143159113179518</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01446359734728664</v>
+        <v>0.8360442060805051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.726379368210547</v>
+        <v>0.898328265981273</v>
       </c>
       <c r="E29" t="n">
-        <v>0.78869836367319</v>
+        <v>0.1057979590009243</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3623610450812542</v>
+        <v>0.0009860393683674695</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2137663993005023</v>
+        <v>0.4463441516311158</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0004232513665917662</v>
+        <v>0.00483063836216222</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0002989509561746599</v>
+        <v>0.1042783888793967</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001406731918951788</v>
+        <v>0.002395560950483674</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9702488109316547</v>
+        <v>0.583804794485957</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8627663482659905</v>
+        <v>0.8318044817503791</v>
       </c>
       <c r="M29" t="n">
-        <v>0.004429017980739876</v>
+        <v>0.1485131509471264</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01656275487783907</v>
+        <v>0.6518647653553207</v>
       </c>
       <c r="O29" t="n">
-        <v>0.308301549721145</v>
+        <v>0.989217097651497</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8793944239918957</v>
+        <v>0.8582116449801627</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.002634759444530474</v>
+        <v>0.002152353910821663</v>
       </c>
       <c r="R29" t="n">
-        <v>0.002004040120063142</v>
+        <v>0.001711344577486889</v>
       </c>
       <c r="S29" t="n">
-        <v>82.09931588166985</v>
+        <v>84.54544903174923</v>
       </c>
       <c r="T29" t="n">
-        <v>78.1483889109914</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.1039818860343687</v>
+        <v>78.82905180719416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01506046205299286</v>
+        <v>0.9199945507909955</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04661651891157204</v>
+        <v>0.1606112566058528</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6707619382523099</v>
+        <v>0.1938434938444334</v>
       </c>
       <c r="D30" t="n">
-        <v>0.940447489608112</v>
+        <v>0.8195202315135574</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8105969675472807</v>
+        <v>0.01597688037628003</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3750953813791755</v>
+        <v>0.4396178895214973</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2079781277246842</v>
+        <v>0.02945702594274299</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0005376097290109561</v>
+        <v>0.005215275587025161</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00057689116013409</v>
+        <v>0.176535521571378</v>
       </c>
       <c r="J30" t="n">
-        <v>0.002737706206833019</v>
+        <v>0.000215223535891605</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9991786609394505</v>
+        <v>0.3088922787965892</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9935292879355548</v>
+        <v>0.495961625904022</v>
       </c>
       <c r="M30" t="n">
-        <v>0.001723210787608844</v>
+        <v>0.1617915770311247</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01790437022527436</v>
+        <v>0.6061348712724935</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2167041210439378</v>
+        <v>0.9968797588331255</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8940569837484471</v>
+        <v>0.9726364645716984</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002700439073078245</v>
+        <v>0.002115711610939053</v>
       </c>
       <c r="R30" t="n">
-        <v>0.002171159981696303</v>
+        <v>0.001615745526792351</v>
       </c>
       <c r="S30" t="n">
-        <v>81.93170162991835</v>
+        <v>85.7613390190469</v>
       </c>
       <c r="T30" t="n">
-        <v>78.25514349960035</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.1040448934044049</v>
+        <v>79.08748887238073</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1372075992885553</v>
+        <v>0.9839266184596812</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01713210530354116</v>
+        <v>0.7978986396366434</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01446359734728664</v>
+        <v>0.005471647109283493</v>
       </c>
       <c r="D31" t="n">
-        <v>0.726379368210547</v>
+        <v>0.2174381623258864</v>
       </c>
       <c r="E31" t="n">
-        <v>0.78869836367319</v>
+        <v>0.5005904334333763</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3623610450812542</v>
+        <v>0.03205945984942235</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2137663993005023</v>
+        <v>0.001145820613939653</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000533781449658928</v>
+        <v>2.999108886928231e-05</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0002989509561746599</v>
+        <v>0.000155533488598299</v>
       </c>
       <c r="J31" t="n">
-        <v>0.001406731918951788</v>
+        <v>0.0001630028409515961</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9702488109316547</v>
+        <v>0.005970357420573225</v>
       </c>
       <c r="L31" t="n">
-        <v>0.848119283104149</v>
+        <v>0.1626706075166061</v>
       </c>
       <c r="M31" t="n">
-        <v>0.004429017980739876</v>
+        <v>0.006553828411999724</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01713197454113012</v>
+        <v>0.006971387681504465</v>
       </c>
       <c r="O31" t="n">
-        <v>0.308301549721145</v>
+        <v>0.03434510682467568</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8799419241753905</v>
+        <v>0.01129753108947027</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.002633062967116071</v>
+        <v>0.002770554000931107</v>
       </c>
       <c r="R31" t="n">
-        <v>0.002004039206975838</v>
+        <v>0.001523669635910123</v>
       </c>
       <c r="S31" t="n">
-        <v>82.10143747579484</v>
+        <v>84.07394834867456</v>
       </c>
       <c r="T31" t="n">
-        <v>78.14746053032627</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.1039859358354323</v>
+        <v>77.84660902783435</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9062619402322925</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01376685414630842</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.009815838551353996</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9056398385407427</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.004381249947896978</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1437039651175235</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0005992348736482134</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001558602530104504</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1531902388663066</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0004177452551384523</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2285418566441559</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.07700046037460785</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2152189900048034</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6022988002065618</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8968652494963257</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8931191082727004</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.002105845177581624</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.001584521541091131</v>
+      </c>
+      <c r="S32" t="n">
+        <v>86.60592755639603</v>
+      </c>
+      <c r="T32" t="n">
+        <v>79.10188690382282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.9994770649529119</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05498144536084211</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0279788490065009</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9826541484603936</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3249204720238897</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.08727153054737211</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01655287798667587</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0002468011805402358</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0001556060944937736</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.003428400523980336</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8271977892765292</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9917830501807583</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0002323360767773524</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4672112861581859</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9191528821764707</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.9963502218021956</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.002297539823626098</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.001608852958437067</v>
+      </c>
+      <c r="S33" t="n">
+        <v>82.69452703534833</v>
+      </c>
+      <c r="T33" t="n">
+        <v>78.3230475887765</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.9686988560711095</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.006869737263897908</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00175282663269611</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9820433811754905</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1985395861386145</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.05567146896726067</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.03557435664305134</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0008846611518790647</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0006570188539514574</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0004285437014921024</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.05876678468987484</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9477563319118134</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.004490891116876702</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.4740290185084635</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.9411780914991988</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8062444716001714</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.002280574858239565</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.001578997557050031</v>
+      </c>
+      <c r="S34" t="n">
+        <v>83.16439130826727</v>
+      </c>
+      <c r="T34" t="n">
+        <v>78.1422428206976</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.7575130767480045</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1569531562165245</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01652613243830225</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8638442192108603</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.007517135988957251</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.08188645990258522</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02207119130890894</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0006168716039464345</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1798307434955153</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0006264910298148402</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2174855352625203</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3645661638377051</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1997308152841993</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.641338775939058</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8958419692863077</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8746832113052506</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.002096009937416243</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.001631429005554878</v>
+      </c>
+      <c r="S35" t="n">
+        <v>86.24696919579735</v>
+      </c>
+      <c r="T35" t="n">
+        <v>79.15811581802609</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.8980731941109743</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.004243066035775114</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0009773444155990524</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8620141407965123</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.004037241859914916</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.06209710945030936</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0569823360714673</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0008054821365130092</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1012311333070326</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.841292674859105e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01611872741788933</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8807966827535647</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1148051567711305</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.6426914752853764</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.8766369639929958</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9162868258826755</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.002149738373222482</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.001581789638057562</v>
+      </c>
+      <c r="S36" t="n">
+        <v>84.90281655330683</v>
+      </c>
+      <c r="T36" t="n">
+        <v>78.65110425401582</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9843325671274153</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.002776121482695114</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.002138303534719234</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9404263612623965</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02350289721657007</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.04739309068654324</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01419111534590121</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.000553718767273658</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.05894121659865496</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6.879130042360955e-05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.07443754217034931</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6110120832656868</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1948637964795858</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6182202757567486</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9744816028886781</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8915961996033772</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.002156939083341724</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.001562907353145665</v>
+      </c>
+      <c r="S37" t="n">
+        <v>85.11852557920601</v>
+      </c>
+      <c r="T37" t="n">
+        <v>78.6092247512138</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.9913038687609211</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.04721101444028836</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02382420726860218</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9680455919368069</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08523763605789758</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1196254061011214</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.006287590707096451</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001415741950087423</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.695280158986561e-05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0004057416150308006</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2357789403256479</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9998890237934905</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0006834403948501374</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1833421152320648</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.999998122575241</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.9673074277862153</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.002561397583774012</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.001568015457144983</v>
+      </c>
+      <c r="S38" t="n">
+        <v>83.10852885248967</v>
+      </c>
+      <c r="T38" t="n">
+        <v>78.02630594410945</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9929544370942334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.917815960519097</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.009761253902006771</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2761588993721515</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5458525173376824</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.09292156648278249</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01508401514400448</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001047921133428691</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.502983926712443e-05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0008570047554554174</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.002577937538256948</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.945880958047014</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.00372209515176726</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.006503597570198194</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9060753293017811</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.9496931814653097</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.002772509046337213</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.001548943308548844</v>
+      </c>
+      <c r="S39" t="n">
+        <v>83.19460627049327</v>
+      </c>
+      <c r="T39" t="n">
+        <v>77.89460820096974</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.998079737673307</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01299247983845844</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02664649741103094</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9889626050819569</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3615897326480095</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6223741788114585</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01207074381959531</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.003758369776639735</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.001147475610310538</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.003324607092948375</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.2409101265687221</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9996939112955584</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.001119453832569998</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.3658924716939823</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.984013109496874</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9594881551554304</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.002376707031378077</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.001619078154746555</v>
+      </c>
+      <c r="S40" t="n">
+        <v>82.53667616838123</v>
+      </c>
+      <c r="T40" t="n">
+        <v>78.18963154250582</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9976730340642553</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3638433956514625</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01612261103545567</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9725069562250485</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3185133248385064</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1595303834022446</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02040142229296157</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.001071488767086168</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.001345431070566892</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0009205351871552118</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2423761914341876</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9959160570924848</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.03136439235990075</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5704718067509028</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.9881226733997103</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8472273841983423</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.002245233810118025</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.001634413896502937</v>
+      </c>
+      <c r="S41" t="n">
+        <v>82.74197010131729</v>
+      </c>
+      <c r="T41" t="n">
+        <v>78.2733947373641</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.9856598192356204</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.00423475224107207</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.48884309505888</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9722334631701802</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.000157993335098975</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.06265281975998013</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01637105057612007</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001025169206905217</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.083214363451187e-06</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.892891619177901e-05</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.05126588810729377</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.8926798994522968</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.004418953776925438</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.4056945544658804</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.9686572675181064</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01076043140623338</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.002349755314260586</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.001579538215218663</v>
+      </c>
+      <c r="S42" t="n">
+        <v>83.74836159822416</v>
+      </c>
+      <c r="T42" t="n">
+        <v>78.06665494956815</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.8593585298234656</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.003240536905866537</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.002275373416856236</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8508739067899865</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0002780896019851674</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.07225413657634305</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1794028145093793</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0004410767029113647</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1950530706150121</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0002819353209795827</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01824694676823421</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.07289016328087533</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2330544588679209</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.620428364661373</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9464883942423631</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8972010117363383</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.002089356387181266</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.001602542365722748</v>
+      </c>
+      <c r="S43" t="n">
+        <v>86.94201124686779</v>
+      </c>
+      <c r="T43" t="n">
+        <v>79.2767040518828</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.9972442593352474</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.002073025456272194</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.00317808991440089</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8406166984991742</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002133443238850207</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.005728702627040755</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.001071826606302015</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0001327875816063823</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.765987989368338e-05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.000192560940059483</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01969729192501254</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.8463861269207329</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.003003951874862428</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.3498148708760265</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.007464163842135607</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.01528937037104106</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.00242384360715425</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.001529902837146975</v>
+      </c>
+      <c r="S44" t="n">
+        <v>84.41567218443075</v>
+      </c>
+      <c r="T44" t="n">
+        <v>78.05262098009111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.03543452310627854</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9270823212685741</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.009805899955419639</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1993701422463555</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8410485342066664</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.128367581179288</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.003252397714218397</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6.200367070153222e-05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0005874345396662849</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0006170497422659106</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01076080630173751</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.08303784027935532</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0073103384609486</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.00966771824901097</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8871743888748678</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8934267096602596</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.002517122106048234</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.001600229341915111</v>
+      </c>
+      <c r="S45" t="n">
+        <v>83.00487343259276</v>
+      </c>
+      <c r="T45" t="n">
+        <v>77.78936009754412</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9982153935705154</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.05804019583713543</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01886917610381787</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9816631011209929</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3322868109072597</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.05713461166892062</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02996869750835081</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0004105580463513986</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0001284340594793941</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0009383539111562143</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.04821899504360883</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9914021001171268</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0009558627068949031</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.4539038650301272</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.9977802920135531</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.3099402795916117</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.002316532584914086</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.001599823977899494</v>
+      </c>
+      <c r="S46" t="n">
+        <v>82.77072063302461</v>
+      </c>
+      <c r="T46" t="n">
+        <v>78.16216668582926</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9913017616870179</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.02795777197714482</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0034821169819451</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8663800312228822</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0004748311397605063</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.07219303560687398</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.006574603352386865</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0004283079109899397</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.06794800520065275</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0007581649571666276</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1516076944314685</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5441662091998345</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1095408154546711</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.6420835642810551</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8571845038008628</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.1595938733485255</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.00215910178388459</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.001549005097998758</v>
+      </c>
+      <c r="S47" t="n">
+        <v>85.33314074966229</v>
+      </c>
+      <c r="T47" t="n">
+        <v>78.567586440797</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9994481600003711</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9849347249446149</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03845943550010567</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2001859810438625</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5503792512217168</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.004608083324583838</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01265515107275322</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0001456197480160902</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.75588665467563e-05</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.001024069191074899</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.002160819886846353</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9972923125406985</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.001254071490164063</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9214935635817538</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.005815525312336981</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.06798394878452879</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.002623440887137747</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.001518100605056627</v>
+      </c>
+      <c r="S48" t="n">
+        <v>84.20569630647886</v>
+      </c>
+      <c r="T48" t="n">
+        <v>78.18110953640883</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.9960479291819685</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01765143790371781</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01109274543251931</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8423585002714448</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.007109746558312938</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1662285583809115</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01484372374290998</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.000339831447745389</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.002237509514463104</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001238959000385773</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1056982218753041</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9320529527167316</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.1479598948848085</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.7135601902204807</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.0516745614059135</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9248722300906329</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.002179075916743848</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.001552494472654405</v>
+      </c>
+      <c r="S49" t="n">
+        <v>85.06108125507643</v>
+      </c>
+      <c r="T49" t="n">
+        <v>78.2862078493234</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7744856507666679</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.02257456789476009</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.02765709981245588</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8901025055472419</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.003033452547206023</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.09026336321660769</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02604054113306074</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.003572350708691965</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1173573932256945</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0002934679344057156</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.006381112104994591</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0482196649619871</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1550762461722093</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6285915595206562</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.9439317795797457</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.9588610326573339</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.002107625854025425</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.001608329053081397</v>
+      </c>
+      <c r="S50" t="n">
+        <v>86.39071979308095</v>
+      </c>
+      <c r="T50" t="n">
+        <v>78.95011480883123</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.9978919324585096</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1562965440422046</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.06319227541057902</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8750470961460638</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.002208482727770483</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.09088843454741874</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.08460478245586484</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0006514917713291055</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1774707185037483</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0004319593020544951</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.04187759476148079</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.5988818517410295</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.1976530577658881</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.6173200837741877</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8939664043541794</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.880908438528752</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.002116493285721526</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.001594221296823274</v>
+      </c>
+      <c r="S51" t="n">
+        <v>85.71131963690482</v>
+      </c>
+      <c r="T51" t="n">
+        <v>79.07881987934938</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.9998394047431867</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01110943084506866</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0003972518337757164</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9088192247644563</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.001979210180980906</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03888302237915132</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01683066328637653</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.001191932323752924</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0005431654460315224</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.000728157876186184</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.02561291549497716</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.8683198340423202</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01380587552090824</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2331657482225988</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.2623699826637443</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.0113934213169597</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.002523796961604319</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.001532356020925699</v>
+      </c>
+      <c r="S52" t="n">
+        <v>84.08086607992803</v>
+      </c>
+      <c r="T52" t="n">
+        <v>78.04361149108023</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.9879110676302164</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.00125160883091259</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.007925681125675436</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7787376488657298</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0005423479867015182</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0853203589598525</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.003488334755760283</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0002367101530153348</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1788757853280865</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.523936136671772e-05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1765513307920431</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.005690549174871218</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.2674804511035991</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.6055353651135136</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.02834121097066056</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.9213778554595144</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.002097043988573531</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.001568276078457834</v>
+      </c>
+      <c r="S53" t="n">
+        <v>87.42090183945461</v>
+      </c>
+      <c r="T53" t="n">
+        <v>79.20873854715299</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.9863977565981743</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01564542124875263</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.007337189519170462</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8742141308387086</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0005968498831040002</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1648726152857897</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.06553152264026149</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.000658482664407404</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.03238968954052949</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0002402828006600681</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.03766387167311151</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.07026735639432391</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1744718910289978</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.6375857876550877</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.08152013726810292</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8296931853828227</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.002145682614490597</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.00155680832528289</v>
+      </c>
+      <c r="S54" t="n">
+        <v>86.50462801967778</v>
+      </c>
+      <c r="T54" t="n">
+        <v>78.57951998731258</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.9968327050927356</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9994889124802585</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.001271144502652623</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2235918537150658</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.58363537296545</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0349355538902319</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.004985903356330712</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.001566173768420572</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0001842849630586231</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.001721073912038444</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1443636612945984</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9860708014297227</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01706040282278548</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.7314757988004569</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.6527499002142713</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.03942060467443965</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.002651358067005252</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.001525344093635599</v>
+      </c>
+      <c r="S55" t="n">
+        <v>83.51820487483111</v>
+      </c>
+      <c r="T55" t="n">
+        <v>78.18751732940633</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.8723334300269154</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0169302268124799</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.001313827773491817</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8791508835080823</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.00120391091094582</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2173286310911959</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03364220978040823</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.001314837111662935</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.02319162432756908</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0007286612861762072</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.09896896283577157</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.1672343722529232</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.1302962868405347</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.6413722037077336</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8613662726016419</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8729753582981469</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.002145715282099194</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.001579070788280065</v>
+      </c>
+      <c r="S56" t="n">
+        <v>85.80693778756567</v>
+      </c>
+      <c r="T56" t="n">
+        <v>78.49854608888826</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.9943847349260012</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.008749172729208138</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.009139330822519916</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9691890381437582</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01685609442561353</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2971480137146054</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01655287798667587</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.001494005245017993</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01130888585284266</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.000232596014471113</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8156947992594752</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.9683881601305041</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01196757558316635</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.6225247091880536</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.9813833706470525</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.866407616197262</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.002209211085784723</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.001558325920424074</v>
+      </c>
+      <c r="S57" t="n">
+        <v>83.9906909384524</v>
+      </c>
+      <c r="T57" t="n">
+        <v>78.29119097886286</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.9996925581112261</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.001383896914990072</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.009483580363418207</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7787376488657298</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0005423479867015182</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02917053578701867</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.008060642740852162</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0006082976562943154</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1977458794215643</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.000179525458628976</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.002461524700231376</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.03864758958012777</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.3225937776911307</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5963378274940543</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.004063218779552624</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01282825400953902</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.002108692679646784</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.00155042215846867</v>
+      </c>
+      <c r="S58" t="n">
+        <v>87.70953410478266</v>
+      </c>
+      <c r="T58" t="n">
+        <v>79.31182391420872</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.9831509444518621</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3443675504879055</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0296212144802177</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9830980965520002</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.609186711732618</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1860976628088608</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.005263736709120538</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0002758956785812203</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0004817777940588548</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.003376613719926089</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6331279062318845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9871195838562997</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0006350814004986221</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.3051691469778276</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.9777846425837975</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.9880303549864697</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.002452810309542598</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.001722545534234858</v>
+      </c>
+      <c r="S59" t="n">
+        <v>81.93746517866526</v>
+      </c>
+      <c r="T59" t="n">
+        <v>78.2931554498745</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.9999958456509981</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3863346193703684</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1845466375466165</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9440902005991807</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5548053290789449</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.08437436692693863</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.005066015237037582</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.003306064956656827</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0003025113559317123</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.001054699811787403</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.6926660860690186</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.997063302254496</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01778520358217352</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2682652101473306</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.9308941638912321</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.9878915191869267</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.002471140296006246</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.001714646080973942</v>
+      </c>
+      <c r="S60" t="n">
+        <v>82.02717190605371</v>
+      </c>
+      <c r="T60" t="n">
+        <v>78.26805518985596</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.9718703028966728</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01533532703798678</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.004199892453451703</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.866068672997846</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.001935191750148684</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1202725832671801</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.08463173753252387</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0007032443738945319</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.006255967894977871</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0006266506161029427</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.21569664499081</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.4013845536731609</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.2398896918696286</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.642549979625776</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.9268799736540927</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.9374477803013906</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.002154936919377483</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.00156579286972199</v>
+      </c>
+      <c r="S61" t="n">
+        <v>85.56046487359966</v>
+      </c>
+      <c r="T61" t="n">
+        <v>78.44245814930098</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.9956709590193515</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1525042709209488</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.04449515452332659</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9382386879233511</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.05547054297988407</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5622931008295935</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.006112397536771228</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.001629777351887773</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.06818232883010822</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.003161358508670629</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.324770780311457</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9010260008927542</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1213593008862808</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.6150469891105211</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8524593206238167</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8888330293136418</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.002167492957588991</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.001584818720728476</v>
+      </c>
+      <c r="S62" t="n">
+        <v>84.38681412547747</v>
+      </c>
+      <c r="T62" t="n">
+        <v>78.58936390828475</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.979013804047947</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.08512096164234101</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.007937284331920124</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8747487280604845</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0005453203492607039</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.08830015052297557</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.003537696692464955</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.002086199445280042</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1788757853280865</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.545967789054601e-05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1765513307920431</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.005690549174871218</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.300060508054583</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.6057529399706719</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.9665416909198374</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.9801260709566797</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.002094602214607489</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.001584804770013431</v>
+      </c>
+      <c r="S63" t="n">
+        <v>87.10595207032624</v>
+      </c>
+      <c r="T63" t="n">
+        <v>79.26049787595018</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.9980595196197811</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.007695376198678612</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0761675426199156</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9817984331320331</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.3464336633269323</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1296149997791099</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0004301492530714161</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.001893368958551748</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0005397023763377548</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.003369859837375159</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.06300844441965725</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.134208614076322</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.003918583004313386</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.02312518266592165</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.8998269045676444</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.9656517149554131</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.002618770045737098</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.00162092581084867</v>
+      </c>
+      <c r="S64" t="n">
+        <v>82.70233208072185</v>
+      </c>
+      <c r="T64" t="n">
+        <v>77.92206242927783</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.9897411464024823</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1172798671404263</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.008810868954832863</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8526632066499562</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.003091331076399313</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.3232121912368902</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.09730049027342202</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0001860330709884351</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1518911519833269</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0007407161836200694</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.05491360337012485</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3949531815242033</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.1611743516578895</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.6202636404505953</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.6265786254877515</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.9033005494298765</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.002114409746714153</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.00158386702124392</v>
+      </c>
+      <c r="S65" t="n">
+        <v>85.97023932436035</v>
+      </c>
+      <c r="T65" t="n">
+        <v>78.9781713032085</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.9925589853347974</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.001293632170999245</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01211424199977636</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8630350724993712</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.02437491732603733</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2218989163535787</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04234682791974474</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.003982179052532515</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1492979716663683</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0009471646894011075</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.2315226605969024</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.4812040811953202</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1950135839435126</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.6182378991357487</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.8012258425696159</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.08311824996695966</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.002133863011208091</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.001555020955361376</v>
+      </c>
+      <c r="S66" t="n">
+        <v>86.03357246412406</v>
+      </c>
+      <c r="T66" t="n">
+        <v>79.00575193545319</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.9987674941588793</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8583450013426974</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.004925886314402488</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2019131431853198</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3747131185798825</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.143909762759668</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.007471247003896336</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.833033994403426e-05</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.021184532690568e-05</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0001537075242755799</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001368946138205547</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.3872854116786647</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0003544637162791042</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.005333442172107627</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.002880733145866322</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.0006636661272523166</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.002884214756957848</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.001521378186619427</v>
+      </c>
+      <c r="S67" t="n">
+        <v>84.15439476069037</v>
+      </c>
+      <c r="T67" t="n">
+        <v>77.87567546970531</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.9501712282678877</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.08933180011346845</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.000565884348872895</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9995433181252189</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.3268945021464779</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.3461551900068978</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0428567258779376</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.002506592251057883</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.001141840172721281</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.002894606813217311</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8520529489592671</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9871949831409159</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.01060289748846053</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.4230474889511613</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.9668573019153799</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.9473886951504278</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.002322945118656881</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.001624397938032579</v>
+      </c>
+      <c r="S68" t="n">
+        <v>82.61175459770595</v>
+      </c>
+      <c r="T68" t="n">
+        <v>78.3372569854744</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.9886186528217826</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1541214371237854</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.04855573989729733</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9413895789579866</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.304866799139364</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.102803213765256</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01534137962680556</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0002568629059137858</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0001222656491516373</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.002187165264355083</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0337449664908938</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9509279325877851</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01618456581440037</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.03405678897061198</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.9873730796770868</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.9532913945145418</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.00266611014498897</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.001613938120087527</v>
+      </c>
+      <c r="S69" t="n">
+        <v>82.67952547385195</v>
+      </c>
+      <c r="T69" t="n">
+        <v>77.94901597637917</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.9898516978003709</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01977384949087171</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.002781594684701903</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9598647364970875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.005526952866438062</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.09368540421223397</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01356457514109957</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0002378940709193852</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.04503443783616301</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.002320498173836914</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.02322340607466326</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.5260747032643878</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.007101758627933927</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.6245105561231188</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.994844712199868</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.9014329512839334</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.002180492534762559</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.001562553910948811</v>
+      </c>
+      <c r="S70" t="n">
+        <v>84.72188188729366</v>
+      </c>
+      <c r="T70" t="n">
+        <v>78.40067725034423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.9923214902215171</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.003529241137413102</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.001606484208141063</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8621701421576398</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.001991858568940807</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01471550521755925</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001349073390115739</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0008234452006508012</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1435117797869329</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0005879526398678639</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0234210563888448</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.08795102901961727</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.1357747929425881</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.6180911731782177</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.8785718408201302</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.05869775167860281</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.002128417809761178</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.001550741673553467</v>
+      </c>
+      <c r="S71" t="n">
+        <v>86.49723094262919</v>
+      </c>
+      <c r="T71" t="n">
+        <v>78.99840464389405</v>
       </c>
     </row>
   </sheetData>
